--- a/Ergebnisse_Teil_1/Study_15_10_2025_Sobol_Modell_1.3_KS_Holdout_seed_999/metrics/Trial_436__Reeval_Sobol_Modell_1.3.xlsx
+++ b/Ergebnisse_Teil_1/Study_15_10_2025_Sobol_Modell_1.3_KS_Holdout_seed_999/metrics/Trial_436__Reeval_Sobol_Modell_1.3.xlsx
@@ -6130,13 +6130,13 @@
                   <c:v>88.13082885742188</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>48.2568244934082</c:v>
+                  <c:v>48.25682067871094</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>67.80303955078125</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>47.15335083007812</c:v>
+                  <c:v>47.15334320068359</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>93.40702056884766</c:v>
@@ -6148,22 +6148,22 @@
                   <c:v>83.0731201171875</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>70.31426239013672</c:v>
+                  <c:v>70.31424713134766</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>78.90172576904297</c:v>
+                  <c:v>78.90171813964844</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>99.11341094970703</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>27.7860107421875</c:v>
+                  <c:v>27.7860050201416</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>89.44940185546875</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>76.76142120361328</c:v>
+                  <c:v>76.76141357421875</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>77.82449340820312</c:v>
@@ -6172,28 +6172,28 @@
                   <c:v>46.99692535400391</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>74.60357666015625</c:v>
+                  <c:v>74.60356903076172</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>76.34535217285156</c:v>
+                  <c:v>76.34535980224609</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>54.44913864135742</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>29.42055892944336</c:v>
+                  <c:v>29.42054748535156</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>60.95345306396484</c:v>
+                  <c:v>60.95344543457031</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>42.38430786132812</c:v>
+                  <c:v>42.38430023193359</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>75.42615509033203</c:v>
+                  <c:v>75.4261474609375</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>64.43735504150391</c:v>
+                  <c:v>64.43734741210938</c:v>
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>76.46417236328125</c:v>
@@ -6202,10 +6202,10 @@
                   <c:v>71.07588958740234</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>73.86628723144531</c:v>
+                  <c:v>73.86627960205078</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>79.23890686035156</c:v>
+                  <c:v>79.23891448974609</c:v>
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>78.45290374755859</c:v>
@@ -6220,7 +6220,7 @@
                   <c:v>84.65216827392578</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>80.01215362548828</c:v>
+                  <c:v>80.01214599609375</c:v>
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>74.3114013671875</c:v>
@@ -6229,13 +6229,13 @@
                   <c:v>82.27155303955078</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>76.75189208984375</c:v>
+                  <c:v>76.75189971923828</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>73.39797210693359</c:v>
+                  <c:v>73.39796447753906</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>42.66804504394531</c:v>
+                  <c:v>42.66804122924805</c:v>
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>77.74192810058594</c:v>
@@ -6247,7 +6247,7 @@
                   <c:v>84.7506103515625</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>43.92467880249023</c:v>
+                  <c:v>43.92467498779297</c:v>
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>80.86775207519531</c:v>
@@ -6256,10 +6256,10 @@
                   <c:v>73.07642364501953</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>95.64217376708984</c:v>
+                  <c:v>95.64216613769531</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>47.59379577636719</c:v>
+                  <c:v>47.59379196166992</c:v>
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>81.52342224121094</c:v>
@@ -6286,10 +6286,10 @@
                   <c:v>70.94447326660156</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>58.86083984375</c:v>
+                  <c:v>58.86083602905273</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>84.79196929931641</c:v>
+                  <c:v>84.79198455810547</c:v>
                 </c:pt>
                 <c:pt idx="58">
                   <c:v>77.07450866699219</c:v>
@@ -6298,7 +6298,7 @@
                   <c:v>63.15625762939453</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>94.159912109375</c:v>
+                  <c:v>94.15992736816406</c:v>
                 </c:pt>
                 <c:pt idx="61">
                   <c:v>79.90056610107422</c:v>
@@ -6337,7 +6337,7 @@
                   <c:v>25.66622734069824</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>84.51747131347656</c:v>
+                  <c:v>84.51747894287109</c:v>
                 </c:pt>
                 <c:pt idx="74">
                   <c:v>74.99420928955078</c:v>
@@ -6346,19 +6346,19 @@
                   <c:v>99.70352935791016</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>30.89333343505859</c:v>
+                  <c:v>30.89333534240723</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>53.40189743041992</c:v>
+                  <c:v>53.40189361572266</c:v>
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>50.85924530029297</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>45.09621429443359</c:v>
+                  <c:v>45.09621047973633</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>57.95458602905273</c:v>
+                  <c:v>57.95458221435547</c:v>
                 </c:pt>
                 <c:pt idx="81">
                   <c:v>78.03285217285156</c:v>
@@ -6370,13 +6370,13 @@
                   <c:v>67.20610046386719</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>23.28549194335938</c:v>
+                  <c:v>23.28548431396484</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>27.94938278198242</c:v>
+                  <c:v>27.94937896728516</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>95.44282531738281</c:v>
+                  <c:v>95.44281005859375</c:v>
                 </c:pt>
                 <c:pt idx="87">
                   <c:v>88.11262512207031</c:v>
@@ -6385,7 +6385,7 @@
                   <c:v>94.89877319335938</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>57.38896179199219</c:v>
+                  <c:v>57.38896560668945</c:v>
                 </c:pt>
                 <c:pt idx="90">
                   <c:v>84.09599304199219</c:v>
@@ -6394,25 +6394,25 @@
                   <c:v>77.90045166015625</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>75.66287231445312</c:v>
+                  <c:v>75.66286468505859</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>46.05807113647461</c:v>
+                  <c:v>46.05805969238281</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>70.13461303710938</c:v>
+                  <c:v>70.13460540771484</c:v>
                 </c:pt>
                 <c:pt idx="95">
                   <c:v>83.75422668457031</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>86.66859436035156</c:v>
+                  <c:v>86.66858673095703</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>26.17310333251953</c:v>
+                  <c:v>26.17309951782227</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>82.00772094726562</c:v>
+                  <c:v>82.00772857666016</c:v>
                 </c:pt>
                 <c:pt idx="99">
                   <c:v>66.18147277832031</c:v>
@@ -7247,7 +7247,7 @@
         <v>48.7815</v>
       </c>
       <c r="F6">
-        <v>48.2568244934082</v>
+        <v>48.25682067871094</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -7311,7 +7311,7 @@
         <v>49.0368</v>
       </c>
       <c r="F8">
-        <v>47.15335083007812</v>
+        <v>47.15334320068359</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -7391,7 +7391,7 @@
         <v>73.68899999999999</v>
       </c>
       <c r="F12">
-        <v>70.31426239013672</v>
+        <v>70.31424713134766</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -7411,7 +7411,7 @@
         <v>74.6092</v>
       </c>
       <c r="F13">
-        <v>78.90172576904297</v>
+        <v>78.90171813964844</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -7451,7 +7451,7 @@
         <v>38.9871</v>
       </c>
       <c r="F15">
-        <v>27.7860107421875</v>
+        <v>27.7860050201416</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -7491,7 +7491,7 @@
         <v>77.1523</v>
       </c>
       <c r="F17">
-        <v>76.76142120361328</v>
+        <v>76.76141357421875</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -7551,7 +7551,7 @@
         <v>81.3948</v>
       </c>
       <c r="F20">
-        <v>74.60357666015625</v>
+        <v>74.60356903076172</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -7571,7 +7571,7 @@
         <v>76.9473</v>
       </c>
       <c r="F21">
-        <v>76.34535217285156</v>
+        <v>76.34535980224609</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -7611,7 +7611,7 @@
         <v>29.2626</v>
       </c>
       <c r="F23">
-        <v>29.42055892944336</v>
+        <v>29.42054748535156</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -7631,7 +7631,7 @@
         <v>51.853</v>
       </c>
       <c r="F24">
-        <v>60.95345306396484</v>
+        <v>60.95344543457031</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -7651,7 +7651,7 @@
         <v>43.7599</v>
       </c>
       <c r="F25">
-        <v>42.38430786132812</v>
+        <v>42.38430023193359</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -7671,7 +7671,7 @@
         <v>79.8796</v>
       </c>
       <c r="F26">
-        <v>75.42615509033203</v>
+        <v>75.4261474609375</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -7691,7 +7691,7 @@
         <v>63.4677</v>
       </c>
       <c r="F27">
-        <v>64.43735504150391</v>
+        <v>64.43734741210938</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -7751,7 +7751,7 @@
         <v>78.3235</v>
       </c>
       <c r="F30">
-        <v>73.86628723144531</v>
+        <v>73.86627960205078</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -7771,7 +7771,7 @@
         <v>78.5082</v>
       </c>
       <c r="F31">
-        <v>79.23890686035156</v>
+        <v>79.23891448974609</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -7871,7 +7871,7 @@
         <v>73.6311</v>
       </c>
       <c r="F36">
-        <v>80.01215362548828</v>
+        <v>80.01214599609375</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -7931,7 +7931,7 @@
         <v>74.9051</v>
       </c>
       <c r="F39">
-        <v>76.75189208984375</v>
+        <v>76.75189971923828</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -7951,7 +7951,7 @@
         <v>75.6026</v>
       </c>
       <c r="F40">
-        <v>73.39797210693359</v>
+        <v>73.39796447753906</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -7971,7 +7971,7 @@
         <v>38.9776</v>
       </c>
       <c r="F41">
-        <v>42.66804504394531</v>
+        <v>42.66804122924805</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -8051,7 +8051,7 @@
         <v>39.188</v>
       </c>
       <c r="F45">
-        <v>43.92467880249023</v>
+        <v>43.92467498779297</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -8111,7 +8111,7 @@
         <v>93.9173</v>
       </c>
       <c r="F48">
-        <v>95.64217376708984</v>
+        <v>95.64216613769531</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -8131,7 +8131,7 @@
         <v>54.0966</v>
       </c>
       <c r="F49">
-        <v>47.59379577636719</v>
+        <v>47.59379196166992</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -8311,7 +8311,7 @@
         <v>51.7094</v>
       </c>
       <c r="F58">
-        <v>58.86083984375</v>
+        <v>58.86083602905273</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -8331,7 +8331,7 @@
         <v>74.66889999999999</v>
       </c>
       <c r="F59">
-        <v>84.79196929931641</v>
+        <v>84.79198455810547</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -8391,7 +8391,7 @@
         <v>90.9457</v>
       </c>
       <c r="F62">
-        <v>94.159912109375</v>
+        <v>94.15992736816406</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -8651,7 +8651,7 @@
         <v>86.751</v>
       </c>
       <c r="F75">
-        <v>84.51747131347656</v>
+        <v>84.51747894287109</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -8711,7 +8711,7 @@
         <v>21.8916</v>
       </c>
       <c r="F78">
-        <v>30.89333343505859</v>
+        <v>30.89333534240723</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -8731,7 +8731,7 @@
         <v>50.5684</v>
       </c>
       <c r="F79">
-        <v>53.40189743041992</v>
+        <v>53.40189361572266</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -8771,7 +8771,7 @@
         <v>55.7459</v>
       </c>
       <c r="F81">
-        <v>45.09621429443359</v>
+        <v>45.09621047973633</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -8791,7 +8791,7 @@
         <v>58.0646</v>
       </c>
       <c r="F82">
-        <v>57.95458602905273</v>
+        <v>57.95458221435547</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -8871,7 +8871,7 @@
         <v>22.8756</v>
       </c>
       <c r="F86">
-        <v>23.28549194335938</v>
+        <v>23.28548431396484</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -8891,7 +8891,7 @@
         <v>28.121</v>
       </c>
       <c r="F87">
-        <v>27.94938278198242</v>
+        <v>27.94937896728516</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -8911,7 +8911,7 @@
         <v>96.01479999999999</v>
       </c>
       <c r="F88">
-        <v>95.44282531738281</v>
+        <v>95.44281005859375</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -8971,7 +8971,7 @@
         <v>57.9143</v>
       </c>
       <c r="F91">
-        <v>57.38896179199219</v>
+        <v>57.38896560668945</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -9031,7 +9031,7 @@
         <v>79.09650000000001</v>
       </c>
       <c r="F94">
-        <v>75.66287231445312</v>
+        <v>75.66286468505859</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -9051,7 +9051,7 @@
         <v>43.9895</v>
       </c>
       <c r="F95">
-        <v>46.05807113647461</v>
+        <v>46.05805969238281</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -9071,7 +9071,7 @@
         <v>65.3784</v>
       </c>
       <c r="F96">
-        <v>70.13461303710938</v>
+        <v>70.13460540771484</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -9111,7 +9111,7 @@
         <v>84.7602</v>
       </c>
       <c r="F98">
-        <v>86.66859436035156</v>
+        <v>86.66858673095703</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -9131,7 +9131,7 @@
         <v>21.5603</v>
       </c>
       <c r="F99">
-        <v>26.17310333251953</v>
+        <v>26.17309951782227</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -9151,7 +9151,7 @@
         <v>80.6146</v>
       </c>
       <c r="F100">
-        <v>82.00772094726562</v>
+        <v>82.00772857666016</v>
       </c>
     </row>
     <row r="101" spans="1:6">
